--- a/artfynd/A 9304-2019.xlsx
+++ b/artfynd/A 9304-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64434202</v>
+        <v>104419329</v>
       </c>
       <c r="B2" t="n">
-        <v>57498</v>
+        <v>103813</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,60 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100092</v>
+        <v>220785</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>autobox med tidsexpansion</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>422717.5394255907</v>
+        <v>423929.4998515105</v>
       </c>
       <c r="R2" t="n">
-        <v>6214844.079086956</v>
+        <v>6215247.757903069</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -769,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -779,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -795,31 +776,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Rune Gerell</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Rune Gerell, Karin Gerell Lundberg</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64433291</v>
+        <v>104418882</v>
       </c>
       <c r="B3" t="n">
-        <v>57503</v>
+        <v>95246</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -832,56 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>205995</v>
+        <v>2604</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärgpipistrell</t>
+          <t>Trädporella</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pipistrellus pygmaeus</t>
+          <t>Porella platyphylla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(W.E.Leach, 1825)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>autobox med tidsexpansion</t>
-        </is>
-      </c>
+          <t>(L.) Pfeiff.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Sk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422717.5394255907</v>
+        <v>423880.2010275957</v>
       </c>
       <c r="R3" t="n">
-        <v>6214844.079086956</v>
+        <v>6215179.982710158</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -905,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -915,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2011-06-16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -934,28 +891,38 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Lövskog</t>
+          <t>Bokskog</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Bok, senvuxen</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Bok, senvuxen</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Rune Gerell</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Rune Gerell, Karin Gerell Lundberg</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64431603</v>
+        <v>104419328</v>
       </c>
       <c r="B4" t="n">
-        <v>57491</v>
+        <v>103813</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -964,60 +931,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>205992</v>
+        <v>220785</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>autobox med tidsexpansion</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Sk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>422717.5394255907</v>
+        <v>423919.3924697884</v>
       </c>
       <c r="R4" t="n">
-        <v>6214844.079086956</v>
+        <v>6215213.891950013</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1041,7 +989,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1051,7 +999,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2011-06-16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1067,28 +1015,23 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Rune Gerell</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Rune Gerell, Karin Gerell Lundberg</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69295718</v>
+        <v>64434202</v>
       </c>
       <c r="B5" t="n">
         <v>57498</v>
@@ -1123,7 +1066,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1143,14 +1086,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Nävlinge, Hässleholms kommun, Sk</t>
+          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>422730.4201891685</v>
+        <v>422717.5394255907</v>
       </c>
       <c r="R5" t="n">
-        <v>6214844.963824036</v>
+        <v>6214844.079086956</v>
       </c>
       <c r="S5" t="n">
         <v>100</v>
@@ -1177,7 +1120,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2012-07-13</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1187,7 +1130,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2012-07-13</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1206,7 +1149,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Väg/lövskog</t>
+          <t>Lövskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1224,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69295381</v>
+        <v>64433291</v>
       </c>
       <c r="B6" t="n">
-        <v>57484</v>
+        <v>57503</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1236,30 +1179,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>205998</v>
+        <v>205995</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Dvärgpipistrell</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Pipistrellus pygmaeus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+          <t>(W.E.Leach, 1825)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1279,14 +1222,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Nävlinge, Hässleholms kommun, Sk</t>
+          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>422730.4201891685</v>
+        <v>422717.5394255907</v>
       </c>
       <c r="R6" t="n">
-        <v>6214844.963824036</v>
+        <v>6214844.079086956</v>
       </c>
       <c r="S6" t="n">
         <v>100</v>
@@ -1313,7 +1256,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2012-07-23</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1323,7 +1266,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2012-07-23</t>
+          <t>2011-06-16</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1342,7 +1285,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Väg/lövskog</t>
+          <t>Lövskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1360,7 +1303,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69293036</v>
+        <v>64431603</v>
       </c>
       <c r="B7" t="n">
         <v>57491</v>
@@ -1395,7 +1338,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1415,14 +1358,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nävlinge, Hässleholms kommun, Sk</t>
+          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>422730.4201891685</v>
+        <v>422717.5394255907</v>
       </c>
       <c r="R7" t="n">
-        <v>6214844.963824036</v>
+        <v>6214844.079086956</v>
       </c>
       <c r="S7" t="n">
         <v>100</v>
@@ -1449,7 +1392,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2012-07-24</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1459,7 +1402,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2012-07-24</t>
+          <t>2011-06-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1478,7 +1421,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Väg/lövskog</t>
+          <t>Lövskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1496,10 +1439,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104419329</v>
+        <v>69295718</v>
       </c>
       <c r="B8" t="n">
-        <v>103813</v>
+        <v>57498</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1508,41 +1451,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220785</v>
+        <v>100092</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Schreber, 1774)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Nävlinge, Sk</t>
+          <t>Nävlinge, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>423929.4998515105</v>
+        <v>422730.4201891685</v>
       </c>
       <c r="R8" t="n">
-        <v>6215247.757903069</v>
+        <v>6214844.963824036</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1566,7 +1528,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2012-07-13</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1576,7 +1538,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2012-07-13</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1592,26 +1554,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Väg/lövskog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell, Karin Gerell Lundberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104418882</v>
+        <v>69295381</v>
       </c>
       <c r="B9" t="n">
-        <v>95246</v>
+        <v>57484</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1620,41 +1587,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2604</v>
+        <v>205998</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trädporella</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porella platyphylla</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Pfeiff.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Nävlinge, Sk</t>
+          <t>Nävlinge, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>423880.2010275957</v>
+        <v>422730.4201891685</v>
       </c>
       <c r="R9" t="n">
-        <v>6215179.982710158</v>
+        <v>6214844.963824036</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1678,7 +1664,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2012-07-23</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1688,7 +1674,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2012-07-23</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1707,38 +1693,28 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Bokskog</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Bok, senvuxen</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Bok, senvuxen</t>
+          <t>Väg/lövskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell, Karin Gerell Lundberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104419328</v>
+        <v>69293036</v>
       </c>
       <c r="B10" t="n">
-        <v>103813</v>
+        <v>57491</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1747,41 +1723,60 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220785</v>
+        <v>205992</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Kuhl, 1817)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Nävlinge, Sk</t>
+          <t>Nävlinge, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>423919.3924697884</v>
+        <v>422730.4201891685</v>
       </c>
       <c r="R10" t="n">
-        <v>6215213.891950013</v>
+        <v>6214844.963824036</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1805,7 +1800,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2012-07-24</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1815,7 +1810,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2012-07-24</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1831,16 +1826,21 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Väg/lövskog</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell, Karin Gerell Lundberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>

--- a/artfynd/A 9304-2019.xlsx
+++ b/artfynd/A 9304-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104419329</v>
+        <v>64434202</v>
       </c>
       <c r="B2" t="n">
-        <v>103813</v>
+        <v>57498</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220785</v>
+        <v>100092</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större brunfladdermus</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Nyctalus noctula</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Schreber, 1774)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Nävlinge, Sk</t>
+          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>423929.4998515105</v>
+        <v>422717.5394255907</v>
       </c>
       <c r="R2" t="n">
-        <v>6215247.757903069</v>
+        <v>6214844.079086956</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +769,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +779,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,26 +795,31 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell, Karin Gerell Lundberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104418882</v>
+        <v>64433291</v>
       </c>
       <c r="B3" t="n">
-        <v>95246</v>
+        <v>57503</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +832,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2604</v>
+        <v>205995</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trädporella</t>
+          <t>Dvärgpipistrell</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porella platyphylla</t>
+          <t>Pipistrellus pygmaeus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Pfeiff.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(W.E.Leach, 1825)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Nävlinge, Sk</t>
+          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>423880.2010275957</v>
+        <v>422717.5394255907</v>
       </c>
       <c r="R3" t="n">
-        <v>6215179.982710158</v>
+        <v>6214844.079086956</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +905,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +915,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2011-06-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -891,38 +934,28 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Bokskog</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Bok, senvuxen</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Bok, senvuxen</t>
+          <t>Lövskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell, Karin Gerell Lundberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104419328</v>
+        <v>64431603</v>
       </c>
       <c r="B4" t="n">
-        <v>103813</v>
+        <v>57491</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,41 +964,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220785</v>
+        <v>205992</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Vattenfladdermus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Myotis daubentonii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Kuhl, 1817)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>registreringar</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>autobox med tidsexpansion</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nävlinge, Sk</t>
+          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>423919.3924697884</v>
+        <v>422717.5394255907</v>
       </c>
       <c r="R4" t="n">
-        <v>6215213.891950013</v>
+        <v>6214844.079086956</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -989,7 +1041,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2011-06-15</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -999,7 +1051,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2011-06-16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1015,23 +1067,28 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Rune Gerell, Karin Gerell Lundberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64434202</v>
+        <v>69295718</v>
       </c>
       <c r="B5" t="n">
         <v>57498</v>
@@ -1066,7 +1123,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1086,14 +1143,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>422717.5394255907</v>
+        <v>422730.4201891685</v>
       </c>
       <c r="R5" t="n">
-        <v>6214844.079086956</v>
+        <v>6214844.963824036</v>
       </c>
       <c r="S5" t="n">
         <v>100</v>
@@ -1120,7 +1177,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2012-07-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1130,7 +1187,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2012-07-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1149,7 +1206,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Lövskog</t>
+          <t>Väg/lövskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1167,10 +1224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64433291</v>
+        <v>69295381</v>
       </c>
       <c r="B6" t="n">
-        <v>57503</v>
+        <v>57484</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,30 +1236,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>205995</v>
+        <v>205998</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dvärgpipistrell</t>
+          <t>Nordfladdermus</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pipistrellus pygmaeus</t>
+          <t>Eptesicus nilssonii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(W.E.Leach, 1825)</t>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1222,14 +1279,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>422717.5394255907</v>
+        <v>422730.4201891685</v>
       </c>
       <c r="R6" t="n">
-        <v>6214844.079086956</v>
+        <v>6214844.963824036</v>
       </c>
       <c r="S6" t="n">
         <v>100</v>
@@ -1256,7 +1313,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2012-07-23</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1266,7 +1323,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2011-06-16</t>
+          <t>2012-07-23</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1285,7 +1342,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Lövskog</t>
+          <t>Väg/lövskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1303,7 +1360,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64431603</v>
+        <v>69293036</v>
       </c>
       <c r="B7" t="n">
         <v>57491</v>
@@ -1338,7 +1395,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1358,14 +1415,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>850 m O Sandåkra, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Hässleholms kommun, Sk</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>422717.5394255907</v>
+        <v>422730.4201891685</v>
       </c>
       <c r="R7" t="n">
-        <v>6214844.079086956</v>
+        <v>6214844.963824036</v>
       </c>
       <c r="S7" t="n">
         <v>100</v>
@@ -1392,7 +1449,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2011-06-15</t>
+          <t>2012-07-24</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1402,7 +1459,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2011-06-16</t>
+          <t>2012-07-24</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1421,7 +1478,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Lövskog</t>
+          <t>Väg/lövskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1439,10 +1496,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69295718</v>
+        <v>104419329</v>
       </c>
       <c r="B8" t="n">
-        <v>57498</v>
+        <v>103813</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1451,60 +1508,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100092</v>
+        <v>220785</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Större brunfladdermus</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nyctalus noctula</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schreber, 1774)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>autobox med tidsexpansion</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Nävlinge, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Sk</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>422730.4201891685</v>
+        <v>423929.4998515105</v>
       </c>
       <c r="R8" t="n">
-        <v>6214844.963824036</v>
+        <v>6215247.757903069</v>
       </c>
       <c r="S8" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1528,7 +1566,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2012-07-13</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1538,7 +1576,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2012-07-13</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1554,31 +1592,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Väg/lövskog</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Rune Gerell</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Rune Gerell, Karin Gerell Lundberg</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69295381</v>
+        <v>104418882</v>
       </c>
       <c r="B9" t="n">
-        <v>57484</v>
+        <v>95246</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1587,60 +1620,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>205998</v>
+        <v>2604</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nordfladdermus</t>
+          <t>Trädporella</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Eptesicus nilssonii</t>
+          <t>Porella platyphylla</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(A.Keyserling &amp; Blasius, 1839)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>autobox med tidsexpansion</t>
-        </is>
-      </c>
+          <t>(L.) Pfeiff.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Nävlinge, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Sk</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>422730.4201891685</v>
+        <v>423880.2010275957</v>
       </c>
       <c r="R9" t="n">
-        <v>6214844.963824036</v>
+        <v>6215179.982710158</v>
       </c>
       <c r="S9" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1664,7 +1678,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2012-07-23</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1674,7 +1688,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2012-07-23</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1693,28 +1707,38 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Väg/lövskog</t>
+          <t>Bokskog</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Bok, senvuxen</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Bok, senvuxen</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Rune Gerell</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Rune Gerell, Karin Gerell Lundberg</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69293036</v>
+        <v>104419328</v>
       </c>
       <c r="B10" t="n">
-        <v>57491</v>
+        <v>103813</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1723,60 +1747,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>205992</v>
+        <v>220785</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vattenfladdermus</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Myotis daubentonii</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Kuhl, 1817)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>registreringar</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>autobox med tidsexpansion</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Nävlinge, Hässleholms kommun, Sk</t>
+          <t>Nävlinge, Sk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>422730.4201891685</v>
+        <v>423919.3924697884</v>
       </c>
       <c r="R10" t="n">
-        <v>6214844.963824036</v>
+        <v>6215213.891950013</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1800,7 +1805,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2012-07-24</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1810,7 +1815,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2012-07-24</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1826,21 +1831,16 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Väg/lövskog</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Rune Gerell</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Rune Gerell, Karin Gerell Lundberg</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
